--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>TOTAL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,9 +208,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,11 +551,21 @@
       <c r="B2" s="3">
         <v>40725</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="5"/>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -561,11 +574,21 @@
       <c r="B3" s="3">
         <v>40728</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
+      <c r="C3" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -574,11 +597,21 @@
       <c r="B4" s="3">
         <v>40729</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
+      <c r="C4" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -587,11 +620,21 @@
       <c r="B5" s="3">
         <v>40730</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
+      <c r="C5" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6</v>
+      </c>
+      <c r="G5" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -600,11 +643,21 @@
       <c r="B6" s="3">
         <v>40731</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6</v>
+      </c>
+      <c r="G6" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -613,11 +666,21 @@
       <c r="B7" s="3">
         <v>40732</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -626,11 +689,21 @@
       <c r="B8" s="3">
         <v>40735</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
+      <c r="C8" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6</v>
+      </c>
+      <c r="G8" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -639,11 +712,21 @@
       <c r="B9" s="3">
         <v>40736</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6</v>
+      </c>
+      <c r="G9" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -652,11 +735,21 @@
       <c r="B10" s="3">
         <v>40737</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
+      <c r="C10" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="6">
+        <v>6</v>
+      </c>
+      <c r="G10" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -665,11 +758,21 @@
       <c r="B11" s="3">
         <v>40738</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
+      <c r="C11" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
@@ -678,11 +781,21 @@
       <c r="B12" s="3">
         <v>40739</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
+      <c r="C12" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -691,11 +804,21 @@
       <c r="B13" s="3">
         <v>40742</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
+      <c r="C13" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6</v>
+      </c>
+      <c r="G13" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
@@ -704,11 +827,21 @@
       <c r="B14" s="3">
         <v>40743</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
+      <c r="C14" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6">
+        <v>6</v>
+      </c>
+      <c r="G14" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -717,11 +850,21 @@
       <c r="B15" s="3">
         <v>40744</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
+      <c r="C15" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="6">
+        <v>6</v>
+      </c>
+      <c r="G15" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
@@ -730,11 +873,21 @@
       <c r="B16" s="3">
         <v>40745</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
+      <c r="C16" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6">
+        <v>6</v>
+      </c>
+      <c r="G16" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
@@ -743,11 +896,21 @@
       <c r="B17" s="3">
         <v>40746</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
+      <c r="C17" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="6">
+        <v>6</v>
+      </c>
+      <c r="G17" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
@@ -756,11 +919,21 @@
       <c r="B18" s="3">
         <v>40749</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
+      <c r="C18" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6">
+        <v>6</v>
+      </c>
+      <c r="G18" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -769,11 +942,21 @@
       <c r="B19" s="3">
         <v>40750</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
+      <c r="C19" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6">
+        <v>6</v>
+      </c>
+      <c r="G19" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -782,11 +965,21 @@
       <c r="B20" s="3">
         <v>40751</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
+      <c r="C20" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="6">
+        <v>6</v>
+      </c>
+      <c r="G20" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
@@ -795,11 +988,21 @@
       <c r="B21" s="3">
         <v>40752</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
+      <c r="C21" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6">
+        <v>6</v>
+      </c>
+      <c r="G21" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -808,11 +1011,21 @@
       <c r="B22" s="3">
         <v>40753</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
+      <c r="C22" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.14583333333333301</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="6">
+        <v>6</v>
+      </c>
+      <c r="G22" s="5">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" s="8" t="s">
@@ -820,22 +1033,22 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="9">
         <f>SUM(F23:G23)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>130</v>
+      </c>
+      <c r="G24" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -69,8 +69,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,7 +303,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -338,7 +337,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -514,14 +512,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -590,7 +590,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -598,10 +598,10 @@
         <v>40729</v>
       </c>
       <c r="C4" s="4">
-        <v>0.375</v>
+        <v>0.39861111111111108</v>
       </c>
       <c r="D4" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.16944444444444443</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>15</v>
@@ -613,7 +613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -636,7 +636,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -659,7 +659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -682,7 +682,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -705,7 +705,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -728,7 +728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -751,7 +751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -774,7 +774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -797,7 +797,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -820,7 +820,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -843,7 +843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -866,7 +866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -889,7 +889,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -912,7 +912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -935,7 +935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -958,7 +958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -981,7 +981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
@@ -1060,24 +1060,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -64,13 +64,16 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>FERIADO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +92,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,7 +138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -180,11 +198,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,6 +241,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -515,9 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -791,10 +830,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G12" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -814,10 +853,10 @@
         <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -837,10 +876,10 @@
         <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G14" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -860,10 +899,10 @@
         <v>15</v>
       </c>
       <c r="F15" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -883,10 +922,10 @@
         <v>15</v>
       </c>
       <c r="F16" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -906,10 +945,10 @@
         <v>15</v>
       </c>
       <c r="F17" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G17" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -929,10 +968,10 @@
         <v>15</v>
       </c>
       <c r="F18" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G18" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -952,10 +991,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G19" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -975,57 +1014,41 @@
         <v>15</v>
       </c>
       <c r="F20" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G20" s="5">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="14">
         <v>40752</v>
       </c>
-      <c r="C21" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.14583333333333301</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="6">
-        <v>6</v>
-      </c>
-      <c r="G21" s="5">
-        <v>30</v>
-      </c>
+      <c r="C21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="14">
         <v>40753</v>
       </c>
-      <c r="C22" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.14583333333333301</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6">
-        <v>6</v>
-      </c>
-      <c r="G22" s="5">
-        <v>30</v>
-      </c>
+      <c r="C22" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7">
       <c r="E23" s="8" t="s">
@@ -1033,11 +1056,11 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1051,8 +1074,10 @@
       <c r="G24" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C22:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -237,6 +237,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -250,9 +253,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -556,7 +556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -683,10 +683,10 @@
         <v>40731</v>
       </c>
       <c r="C6" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D6" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>15</v>
@@ -1021,34 +1021,34 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="9">
         <v>40752</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="9">
         <v>40753</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7">
       <c r="E23" s="8" t="s">
@@ -1067,11 +1067,11 @@
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="10">
         <f>SUM(F23:G23)</f>
         <v>130</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -824,7 +824,7 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
@@ -847,7 +847,7 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>15</v>
@@ -870,7 +870,7 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>15</v>
@@ -893,7 +893,7 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -916,7 +916,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>15</v>
@@ -939,7 +939,7 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>15</v>
@@ -962,7 +962,7 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>15</v>
@@ -985,7 +985,7 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>15</v>
@@ -1008,7 +1008,7 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.1875</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>15</v>

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>Día</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>FERIADO</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +256,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -729,10 +735,10 @@
         <v>40735</v>
       </c>
       <c r="C8" s="4">
-        <v>0.375</v>
+        <v>0.37152777777777773</v>
       </c>
       <c r="D8" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.10069444444444443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>15</v>
@@ -741,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -752,13 +758,13 @@
         <v>40736</v>
       </c>
       <c r="C9" s="4">
-        <v>0.375</v>
+        <v>0.4513888888888889</v>
       </c>
       <c r="D9" s="4">
-        <v>0.14583333333333301</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F9" s="6">
         <v>6</v>
@@ -1060,7 +1066,7 @@
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1069,7 +1075,7 @@
       </c>
       <c r="F24" s="10">
         <f>SUM(F23:G23)</f>
-        <v>130</v>
+        <v>129.5</v>
       </c>
       <c r="G24" s="11"/>
     </row>

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -243,6 +243,9 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,9 +259,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -763,7 +763,7 @@
       <c r="D9" s="4">
         <v>0.2638888888888889</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="6">
@@ -807,16 +807,16 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.14583333333333301</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -830,13 +830,13 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -1014,16 +1014,16 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.1875</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1033,13 +1033,13 @@
       <c r="B21" s="9">
         <v>40752</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
@@ -1048,13 +1048,13 @@
       <c r="B22" s="9">
         <v>40753</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7">
       <c r="E23" s="8" t="s">
@@ -1062,22 +1062,22 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="11">
         <f>SUM(F23:G23)</f>
         <v>129.5</v>
       </c>
-      <c r="G24" s="11"/>
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>FERIADO</t>
-  </si>
-  <si>
-    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -216,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,9 +238,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -738,7 +732,7 @@
         <v>0.37152777777777773</v>
       </c>
       <c r="D8" s="4">
-        <v>0.10069444444444443</v>
+        <v>8.6805555555555566E-2</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>15</v>
@@ -747,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -761,16 +755,16 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="D9" s="4">
-        <v>0.2638888888888889</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
+        <v>0.15972222222222224</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -780,20 +774,20 @@
       <c r="B10" s="3">
         <v>40737</v>
       </c>
-      <c r="C10" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.14583333333333301</v>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -807,13 +801,13 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5">
         <v>0</v>
@@ -830,13 +824,13 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12" s="5">
         <v>0</v>
@@ -1033,13 +1027,13 @@
       <c r="B21" s="9">
         <v>40752</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
@@ -1048,13 +1042,13 @@
       <c r="B22" s="9">
         <v>40753</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="15"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7">
       <c r="E23" s="8" t="s">
@@ -1062,22 +1056,22 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>3.5</v>
+        <v>2.6666666666666665</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <f>SUM(F23:G23)</f>
-        <v>129.5</v>
-      </c>
-      <c r="G24" s="12"/>
+        <v>123.66666666666667</v>
+      </c>
+      <c r="G24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>Día</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>FERIADO</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +256,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -755,16 +761,16 @@
         <v>0.4513888888888889</v>
       </c>
       <c r="D9" s="4">
-        <v>0.15972222222222224</v>
+        <v>0.15277777777777776</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -801,16 +807,16 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="6">
         <v>8</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -824,16 +830,16 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>15</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F12" s="6">
         <v>8</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -847,16 +853,16 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F13" s="6">
         <v>8</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -870,16 +876,16 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F14" s="6">
         <v>8</v>
       </c>
       <c r="G14" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -893,16 +899,16 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F15" s="6">
         <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -916,16 +922,16 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F16" s="6">
         <v>8</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -939,16 +945,16 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F17" s="6">
         <v>8</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -962,13 +968,13 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>15</v>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -985,13 +991,13 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F19" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
@@ -1008,13 +1014,13 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>15</v>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -1056,11 +1062,11 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>2.6666666666666665</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1069,7 +1075,7 @@
       </c>
       <c r="F24" s="10">
         <f>SUM(F23:G23)</f>
-        <v>123.66666666666667</v>
+        <v>130</v>
       </c>
       <c r="G24" s="11"/>
     </row>

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -243,6 +243,9 @@
     <xf numFmtId="16" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -256,9 +259,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -804,19 +804,19 @@
         <v>40738</v>
       </c>
       <c r="C11" s="4">
-        <v>0.375</v>
+        <v>0.4236111111111111</v>
       </c>
       <c r="D11" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>17</v>
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -832,7 +832,7 @@
       <c r="D12" s="4">
         <v>0.27083333333333331</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="6">
@@ -855,7 +855,7 @@
       <c r="D13" s="4">
         <v>0.27083333333333331</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="6">
@@ -878,7 +878,7 @@
       <c r="D14" s="4">
         <v>0.27083333333333331</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="6">
@@ -899,9 +899,9 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E15" s="15" t="s">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F15" s="6">
@@ -922,16 +922,16 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E16" s="15" t="s">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -945,16 +945,16 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E17" s="15" t="s">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -970,7 +970,7 @@
       <c r="D18" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="6">
@@ -993,7 +993,7 @@
       <c r="D19" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="6">
@@ -1016,7 +1016,7 @@
       <c r="D20" s="4">
         <v>0.29166666666666669</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="6">
@@ -1033,13 +1033,13 @@
       <c r="B21" s="9">
         <v>40752</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
@@ -1048,13 +1048,13 @@
       <c r="B22" s="9">
         <v>40753</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7">
       <c r="E23" s="8" t="s">
@@ -1062,22 +1062,22 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="11">
         <f>SUM(F23:G23)</f>
-        <v>130</v>
-      </c>
-      <c r="G24" s="11"/>
+        <v>129.5</v>
+      </c>
+      <c r="G24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
   <si>
     <t>Día</t>
   </si>
@@ -780,20 +780,20 @@
       <c r="B10" s="3">
         <v>40737</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>14</v>
+      <c r="C10" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.1875</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -830,13 +830,13 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>17</v>
+        <v>0.1875</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F12" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="5">
         <v>30</v>
@@ -853,7 +853,7 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>17</v>
@@ -862,7 +862,7 @@
         <v>8</v>
       </c>
       <c r="G13" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -876,7 +876,7 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>17</v>
@@ -885,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="G14" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -899,7 +899,7 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>17</v>
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -922,13 +922,13 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F16" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G16" s="5">
         <v>0</v>
@@ -945,13 +945,13 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G17" s="5">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="5">
         <v>0</v>
@@ -991,13 +991,13 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="5">
         <v>0</v>
@@ -1014,13 +1014,13 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.29166666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" s="5">
         <v>0</v>
@@ -1062,11 +1062,11 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="24" spans="1:7">

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -853,10 +853,10 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>17</v>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="6">
         <v>8</v>

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -873,16 +873,16 @@
         <v>40743</v>
       </c>
       <c r="C14" s="4">
-        <v>0.375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D14" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>17</v>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.25</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>17</v>
@@ -908,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -922,7 +922,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.25</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>17</v>
@@ -931,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -945,7 +945,7 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.25</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>17</v>
@@ -954,7 +954,7 @@
         <v>8</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -968,7 +968,7 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.25</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>17</v>
@@ -977,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -991,7 +991,7 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.25</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>17</v>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1014,7 +1014,7 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.25</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>17</v>
@@ -1023,7 +1023,7 @@
         <v>8</v>
       </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="24" spans="1:7">

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="8505"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -75,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +350,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -384,6 +385,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -559,14 +561,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -612,7 +616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -635,7 +639,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -658,7 +662,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -681,7 +685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -704,7 +708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -727,7 +731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -750,7 +754,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -773,7 +777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -796,7 +800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -819,7 +823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -842,7 +846,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>7</v>
       </c>
@@ -865,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -873,7 +877,7 @@
         <v>40743</v>
       </c>
       <c r="C14" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D14" s="4">
         <v>0.20833333333333334</v>
@@ -885,10 +889,10 @@
         <v>7</v>
       </c>
       <c r="G14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>9</v>
       </c>
@@ -899,10 +903,10 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.25694444444444448</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>17</v>
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F15" s="6">
         <v>8</v>
@@ -911,7 +915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -934,7 +938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -957,7 +961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
@@ -980,7 +984,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
@@ -1026,7 +1030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>10</v>
       </c>
@@ -1041,7 +1045,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1060,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E23" s="8" t="s">
         <v>12</v>
       </c>
@@ -1066,16 +1070,16 @@
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="11">
         <f>SUM(F23:G23)</f>
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="G24" s="12"/>
     </row>
@@ -1091,24 +1095,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -564,9 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -811,7 +809,7 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="D11" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.21875</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>15</v>
@@ -820,7 +818,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -903,7 +901,7 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.21875</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>15</v>
@@ -912,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -926,7 +924,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>17</v>
@@ -935,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="G16" s="5">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -924,10 +924,10 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>17</v>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F16" s="6">
         <v>8</v>
@@ -970,7 +970,7 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>17</v>
@@ -979,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="G18" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -993,7 +993,7 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>17</v>
@@ -1002,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="G19" s="5">
-        <v>10</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1013,19 +1013,19 @@
         <v>40751</v>
       </c>
       <c r="C20" s="4">
-        <v>0.375</v>
+        <v>0.36805555555555558</v>
       </c>
       <c r="D20" s="4">
-        <v>0.25694444444444448</v>
+        <v>0.20486111111111113</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,11 +1064,11 @@
       </c>
       <c r="F23" s="8">
         <f>SUM(F2:F22)</f>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F24" s="11">
         <f>SUM(F23:G23)</f>
-        <v>130</v>
+        <v>129.5</v>
       </c>
       <c r="G24" s="12"/>
     </row>

--- a/Horas/Julio.xlsx
+++ b/Horas/Julio.xlsx
@@ -947,10 +947,10 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.25694444444444448</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>17</v>
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F17" s="6">
         <v>8</v>
@@ -1016,7 +1016,7 @@
         <v>0.36805555555555558</v>
       </c>
       <c r="D20" s="4">
-        <v>0.20486111111111113</v>
+        <v>0.22569444444444445</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>17</v>
@@ -1025,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="G20" s="5">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="G23" s="8">
         <f>(SUM(G2:G22)/60)</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="F24" s="11">
         <f>SUM(F23:G23)</f>
-        <v>129.5</v>
+        <v>130</v>
       </c>
       <c r="G24" s="12"/>
     </row>
